--- a/診断結果一覧.xlsx
+++ b/診断結果一覧.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7394112A-B6C9-4F87-8AA5-7403A446568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF761D6-2C99-48CB-8BB1-3758F40632C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DAFF47-6A22-494C-A3C7-7D74BB409A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B8DAFF47-6A22-494C-A3C7-7D74BB409A34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="証跡" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,153 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLインジェクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://test-link.com.jp/top/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脆弱性検出件数</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像一覧ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脆弱性名</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険度</t>
+    <rPh sb="0" eb="3">
+      <t>キケンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像キャプチャ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST:http://…index.php HTTP/1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP/1.1
+Server:
+Data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,21 +187,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -65,9 +240,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,12 +579,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7E0055-65B6-4C19-B59C-2B708251E113}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F17C6A6-B22F-4B7B-97C7-928ADDEB2508}">
+  <dimension ref="B2:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4140625" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.4140625" customWidth="1"/>
+    <col min="9" max="9" width="5.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="139" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
